--- a/fhir/ig/mpi/StructureDefinition-DirigenteVecinal.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-DirigenteVecinal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T11:09:02-03:00</t>
+    <t>2023-10-06T15:57:40-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/mpi/StructureDefinition-DirigenteVecinal.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-DirigenteVecinal.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/DirigenteVecinal</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/DirigenteVecinal</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T15:57:40-03:00</t>
+    <t>2023-10-12T17:29:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MINSAL</t>
+    <t>Unidad de Interoperabilidad - MINSAL</t>
   </si>
   <si>
     <t>Contact</t>

--- a/fhir/ig/mpi/StructureDefinition-DirigenteVecinal.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-DirigenteVecinal.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T17:29:20-03:00</t>
+    <t>2023-10-18T10:23:28-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/mpi/StructureDefinition-DirigenteVecinal.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-DirigenteVecinal.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T10:23:28-03:00</t>
+    <t>2023-10-26T16:48:32-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/mpi/StructureDefinition-DirigenteVecinal.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-DirigenteVecinal.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T16:48:32-03:00</t>
+    <t>2023-11-02T10:08:03-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
